--- a/src/public/Judges_Import_Template.xlsx
+++ b/src/public/Judges_Import_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pareshsutariya/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A919375-3253-A741-9154-93D9F6B16D94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3749E0FE-67DD-CB44-9F97-7DE179A7E362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{FF557D07-E78D-2F42-889E-CE8D55BC829D}"/>
+    <workbookView xWindow="1000" yWindow="500" windowWidth="27800" windowHeight="17500" xr2:uid="{FF557D07-E78D-2F42-889E-CE8D55BC829D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>BAPSId</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>EventDate</t>
+  </si>
+  <si>
+    <t>04/04/2025</t>
   </si>
 </sst>
 </file>
@@ -96,7 +99,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -434,7 +437,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -460,11 +463,12 @@
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2">
-        <v>45748</v>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>